--- a/Programming_Metrics.xlsx
+++ b/Programming_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hemanth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496A34C3-1E3C-4342-9A1F-BD94CD800E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FD3D41-A2B1-4FF5-8C9B-3585A7B36C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{468F5ECD-AD1C-4A59-80DA-3D50691945D7}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="52">
   <si>
     <t>Topics / Topics</t>
   </si>
@@ -172,6 +173,24 @@
   </si>
   <si>
     <t>these are used to get predefined function or user defined functions</t>
+  </si>
+  <si>
+    <t>Embedded systems for displaying messages and sending commands. They also used in networking and os shells for parsing protocols and user inputs</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>structure group hardware-related data like sensor values or register maps. They simplify code by allowing organized access to complex data.</t>
+  </si>
+  <si>
+    <t>union allow different variables to share the same memory space. They are useful for memory-efficient access to hardware registers or interpreting data in multiple formats.</t>
+  </si>
+  <si>
+    <t>functions are used to group a set of instructions that perform a specific task (like reading a sensor). This makes the code easier to reuse, manage, and understand.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -242,13 +261,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786F8A4F-91E4-4368-BCAC-253E4AAC429B}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,12 +742,18 @@
       <c r="S2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="U2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -785,18 +811,26 @@
       <c r="S3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="U3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -846,18 +880,26 @@
       <c r="S4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="U4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
+      <c r="V4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -907,72 +949,156 @@
       <c r="S5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="U5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -983,27 +1109,63 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1014,25 +1176,61 @@
       <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
+      <c r="L9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1049,23 +1247,57 @@
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1082,25 +1314,57 @@
       <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1117,25 +1381,57 @@
       <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1149,13 +1445,21 @@
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1182,13 +1486,21 @@
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1218,12 +1530,18 @@
       <c r="F15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1250,18 +1568,28 @@
       <c r="E16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1283,11 +1611,21 @@
       <c r="E17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1314,11 +1652,21 @@
       <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1345,11 +1693,21 @@
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1376,11 +1734,21 @@
       <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1395,6 +1763,9 @@
       <c r="V20" s="2"/>
       <c r="W20" s="5"/>
     </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
